--- a/WebPage/Common/RptTemplet/0520Report.xlsx
+++ b/WebPage/Common/RptTemplet/0520Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95153D3B-7A77-4565-AEF7-5E4AC0A09515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC3B582-64BC-46FF-A13D-282DEAD0801E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>退件聯絡統計表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>統計日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,6 +80,10 @@
   </si>
   <si>
     <t>地址三(異動後)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>址更重寄異動記錄報表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +472,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -516,40 +516,40 @@
     </row>
     <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/WebPage/Common/RptTemplet/0520Report.xlsx
+++ b/WebPage/Common/RptTemplet/0520Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC3B582-64BC-46FF-A13D-282DEAD0801E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7071E9D-14F7-48CD-B8C2-F89ADD1FCE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
